--- a/excel and python calculator/excelsheet.xlsx
+++ b/excel and python calculator/excelsheet.xlsx
@@ -1,52 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -65,13 +42,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,123 +440,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>input 1</v>
-      </c>
-      <c r="B1" t="str">
-        <v>opperator</v>
-      </c>
-      <c r="C1" t="str">
-        <v>input2</v>
-      </c>
-      <c r="D1" t="str">
-        <v>--</v>
-      </c>
-      <c r="E1" t="str">
-        <v>output</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>input 1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>opperator</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>input2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>23</v>
-      </c>
-      <c r="B2" t="str">
-        <v>x</v>
-      </c>
-      <c r="C2" t="str">
-        <v>4</v>
-      </c>
-      <c r="D2" t="str">
-        <v>=</v>
-      </c>
-      <c r="H2" t="str">
-        <v xml:space="preserve">--&gt; </v>
-      </c>
-      <c r="I2" t="str">
-        <v>enter your equation in this row.</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>92</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">--&gt; </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>enter your equation in this row.</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>OPPERATORS</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>OPPERATORS</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>+</v>
-      </c>
-      <c r="B5" t="str">
-        <v>--&gt;</v>
-      </c>
-      <c r="C5" t="str">
-        <v>add</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>--&gt;</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>-</v>
-      </c>
-      <c r="B6" t="str">
-        <v>--&gt;</v>
-      </c>
-      <c r="C6" t="str">
-        <v>subtract</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>--&gt;</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>subtract</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>x (case sensitive)</v>
-      </c>
-      <c r="B7" t="str">
-        <v>--&gt;</v>
-      </c>
-      <c r="C7" t="str">
-        <v>multiply</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x (case sensitive)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>--&gt;</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>multiply</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>/</v>
-      </c>
-      <c r="B8" t="str">
-        <v>--&gt;</v>
-      </c>
-      <c r="C8" t="str">
-        <v>divide</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>--&gt;</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>divide</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>^</v>
-      </c>
-      <c r="B9" t="str">
-        <v>--&gt;</v>
-      </c>
-      <c r="C9" t="str">
-        <v>power</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>^</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>--&gt;</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>--</v>
-      </c>
-      <c r="B10" t="str">
-        <v>--&gt;</v>
-      </c>
-      <c r="C10" t="str">
-        <v>--</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>--&gt;</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I10"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>